--- a/cantrip-traits.xlsx
+++ b/cantrip-traits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luigi\workspace\tech\cantrip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Develop\home\luigi\workspace\cantrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706589CD-D229-4879-8FE0-3DC02D06E99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0618C2AD-41E0-4112-91A2-29A9E6B545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27255" yWindow="705" windowWidth="20940" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27600" yWindow="1050" windowWidth="20940" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,6 @@
     <t>min_entry</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Summable</t>
+  </si>
+  <si>
+    <t>intersect</t>
   </si>
 </sst>
 </file>
@@ -364,14 +364,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,7 +657,7 @@
   <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,38 +672,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="3"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -743,10 +743,10 @@
         <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/cantrip-traits.xlsx
+++ b/cantrip-traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Develop\home\luigi\workspace\cantrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0618C2AD-41E0-4112-91A2-29A9E6B545BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F5C88-8F85-4196-9B1F-82B3F92FAAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="1050" windowWidth="20940" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13785" yWindow="1365" windowWidth="35100" windowHeight="26550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>Collectible</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>intersect</t>
+  </si>
+  <si>
+    <t>List-Like</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>30</v>

--- a/cantrip-traits.xlsx
+++ b/cantrip-traits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Develop\home\luigi\workspace\cantrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F5C88-8F85-4196-9B1F-82B3F92FAAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F6D389-8373-4056-B9E6-2F372547C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13785" yWindow="1365" windowWidth="35100" windowHeight="26550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -355,11 +355,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -367,14 +455,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,84 +781,85 @@
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="6"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>93</v>
       </c>
       <c r="S2" s="2"/>
@@ -1453,7 +1564,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
     </row>
